--- a/PacketGenerator/bin/PacketFlow.xlsx
+++ b/PacketGenerator/bin/PacketFlow.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Server\RTS_Server\PacketGenerator\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794FF83-CD32-4299-A8EF-B58A4A842DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F8F97A-928B-419F-9EA2-57DF152DCCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet Flow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>패킷 이름</t>
   </si>
@@ -40,9 +41,6 @@
     <t>C_Login</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>S_Login</t>
   </si>
   <si>
@@ -95,14 +93,214 @@
   </si>
   <si>
     <t>S_GameOver</t>
+  </si>
+  <si>
+    <t>UIManager_Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacketHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_LoginHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle_LoginButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인 후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle_CreateRoomButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_CreateRoomHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Room </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">번호 생성 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Enter</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle_SearchRoomButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RoomId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameRoom.Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle_ReadyButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameRoom.StartGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 신호 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnUnit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -111,6 +309,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,9 +349,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -472,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A19"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -485,124 +703,204 @@
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>